--- a/dal, subji, kadhi/Dal/Chana dal tadka by Nisha madhulika Mtj.xlsx
+++ b/dal, subji, kadhi/Dal/Chana dal tadka by Nisha madhulika Mtj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Dropbox\recipies\dal, subji, kadhi\Dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C8597C-B385-4911-97DB-515C9E982D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47DF9B-2671-4877-901A-BED0F2138473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,38 +622,38 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B19" si="0">(E3/F3)*D3</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="10">
         <v>250</v>
       </c>
       <c r="F4" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
@@ -665,36 +665,36 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="10">
         <v>200</v>
       </c>
       <c r="F6" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>9</v>
@@ -709,17 +709,17 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -731,17 +731,17 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
       <c r="F8" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>10</v>
@@ -753,38 +753,38 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="10">
         <v>6</v>
       </c>
       <c r="F10" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>11</v>
@@ -796,19 +796,19 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10">
         <v>0.5</v>
       </c>
       <c r="F11" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,19 +817,19 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="10">
         <v>3</v>
       </c>
       <c r="F12" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>12</v>
@@ -841,19 +841,19 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
       <c r="F13" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -862,19 +862,19 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="10">
         <v>0.5</v>
       </c>
       <c r="F14" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,19 +883,19 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <v>0.25</v>
       </c>
       <c r="F16" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,19 +925,19 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <v>0.25</v>
       </c>
       <c r="F18" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,19 +967,19 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
